--- a/Words.xlsx
+++ b/Words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mate/Desktop/Projects/Dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mate/Desktop/Projects/mydictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44EBB467-FB6B-804C-B054-46AB8A6E95A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E1518B-161C-874A-A19C-0F158C1A4E91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{89FC445E-921A-5149-AA38-0DECD10B4F71}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{E7893FBC-01F3-DD40-A794-08C729BC3BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="550">
   <si>
     <t>to scald</t>
   </si>
@@ -383,128 +383,1310 @@
     <t>interfering</t>
   </si>
   <si>
-    <t>вмешательсвто</t>
-  </si>
-  <si>
-    <t>To insist of</t>
+    <t>вмешательство</t>
+  </si>
+  <si>
+    <t>Though / although</t>
+  </si>
+  <si>
+    <t>Хотя</t>
+  </si>
+  <si>
+    <t>To deny</t>
+  </si>
+  <si>
+    <t>отрицать</t>
+  </si>
+  <si>
+    <t>To commit a crime</t>
+  </si>
+  <si>
+    <t>Совершить приступление</t>
+  </si>
+  <si>
+    <t>Cannot help doing</t>
+  </si>
+  <si>
+    <t>Не мог не сделать…</t>
+  </si>
+  <si>
+    <t>To tremble / to shiver</t>
+  </si>
+  <si>
+    <t>дрожать</t>
+  </si>
+  <si>
+    <t>To pretend to be</t>
+  </si>
+  <si>
+    <t>притворяться</t>
+  </si>
+  <si>
+    <t>To tear</t>
+  </si>
+  <si>
+    <t>Рвать</t>
+  </si>
+  <si>
+    <t>To look forward to doing smth</t>
+  </si>
+  <si>
+    <t>Ждать с нетерпением, чтоб сделать что-то</t>
+  </si>
+  <si>
+    <t>To deceive</t>
+  </si>
+  <si>
+    <t>Обманывать</t>
+  </si>
+  <si>
+    <t>a peasant</t>
+  </si>
+  <si>
+    <t>Крестьянин</t>
+  </si>
+  <si>
+    <t>To give up the idea of</t>
+  </si>
+  <si>
+    <t>Отказаться от идеи</t>
+  </si>
+  <si>
+    <t>To hear from smbd</t>
+  </si>
+  <si>
+    <t>Слышать о ком-то</t>
+  </si>
+  <si>
+    <t>Dream about (of)</t>
+  </si>
+  <si>
+    <t>Мечтать о чем-либо (просто мечтать / мечтать с планов воплотить в жизнь)</t>
+  </si>
+  <si>
+    <t>To persist in</t>
+  </si>
+  <si>
+    <t>Настаивать на (много раз)</t>
+  </si>
+  <si>
+    <t>To insist on</t>
+  </si>
+  <si>
+    <t>Настаивать на (однократно)</t>
+  </si>
+  <si>
+    <t>To accuse of …</t>
+  </si>
+  <si>
+    <t>Обвинять в …</t>
+  </si>
+  <si>
+    <t>To treat</t>
+  </si>
+  <si>
+    <t>Относиться</t>
+  </si>
+  <si>
+    <t>to confess to smth</t>
+  </si>
+  <si>
+    <t>Признаваться в чем-то</t>
+  </si>
+  <si>
+    <t>It’s no use</t>
+  </si>
+  <si>
+    <t>Бесполезно …</t>
+  </si>
+  <si>
+    <t>To reproach smbd for smth</t>
+  </si>
+  <si>
+    <t>Упрекать кого-то в чем-то</t>
+  </si>
+  <si>
+    <t>to be accustomed to</t>
+  </si>
+  <si>
+    <t>Привыкнуть</t>
+  </si>
+  <si>
+    <t>To object to doing smth</t>
+  </si>
+  <si>
+    <t>Возражать делать что-то</t>
+  </si>
+  <si>
+    <t>Mere chance</t>
+  </si>
+  <si>
+    <t>Простая случайность</t>
+  </si>
+  <si>
+    <t>At the thought …</t>
+  </si>
+  <si>
+    <t>При мысли …</t>
+  </si>
+  <si>
+    <t>To write down</t>
+  </si>
+  <si>
+    <t>Записывать</t>
+  </si>
+  <si>
+    <t>To glance at </t>
+  </si>
+  <si>
+    <t>Взглянуть на</t>
+  </si>
+  <si>
+    <t>curiously</t>
+  </si>
+  <si>
+    <t>Любопытно</t>
+  </si>
+  <si>
+    <t>curiously enough</t>
+  </si>
+  <si>
+    <t>Как ни странно</t>
+  </si>
+  <si>
+    <t>All THE time</t>
+  </si>
+  <si>
+    <t>Все время</t>
+  </si>
+  <si>
+    <t>To sit up late</t>
+  </si>
+  <si>
+    <t>Засиживаться</t>
+  </si>
+  <si>
+    <t>To approve of</t>
+  </si>
+  <si>
+    <t>Одобрять </t>
+  </si>
+  <si>
+    <t>To give up doing smth</t>
+  </si>
+  <si>
+    <t>Бросить что-то делать</t>
+  </si>
+  <si>
+    <t>Lets try IT</t>
+  </si>
+  <si>
+    <t>Давайте попробуем</t>
+  </si>
+  <si>
+    <t>The rain has just stoped</t>
+  </si>
+  <si>
+    <t>Дождь только что перестал</t>
+  </si>
+  <si>
+    <t>It has just stoped raining</t>
+  </si>
+  <si>
+    <t>To do good</t>
+  </si>
+  <si>
+    <t>Делать добро</t>
+  </si>
+  <si>
+    <t>To admire</t>
+  </si>
+  <si>
+    <t>Любоваться</t>
+  </si>
+  <si>
+    <t>To tease</t>
+  </si>
+  <si>
+    <t>Дразнить</t>
+  </si>
+  <si>
+    <t>To catch cold</t>
+  </si>
+  <si>
+    <t>Простудиться</t>
+  </si>
+  <si>
+    <t>He is a headache department</t>
+  </si>
+  <si>
+    <t>От него одни неприятности</t>
+  </si>
+  <si>
+    <t>To apologise to smbd for (doing) smth</t>
+  </si>
+  <si>
+    <t>Извиниться перед кем-то за что-то</t>
+  </si>
+  <si>
+    <t>To be angry WITH smbd</t>
+  </si>
+  <si>
+    <t>Серидться на кого-то</t>
+  </si>
+  <si>
+    <t>A just man</t>
+  </si>
+  <si>
+    <t>Справедливый человек</t>
+  </si>
+  <si>
+    <t>To behave your self</t>
+  </si>
+  <si>
+    <t>Веди себя ПРИЛИЧНО</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Мука</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>цветы</t>
+  </si>
+  <si>
+    <t>Do not misunderstand me</t>
+  </si>
+  <si>
+    <t>Поймите меня правильно</t>
+  </si>
+  <si>
+    <t>innocent</t>
+  </si>
+  <si>
+    <t>невиновный</t>
+  </si>
+  <si>
+    <t>To bother</t>
+  </si>
+  <si>
+    <t>Беспокоиться</t>
+  </si>
+  <si>
+    <t>To have a gift for smth</t>
+  </si>
+  <si>
+    <t>Иметь дар к чему-то</t>
+  </si>
+  <si>
+    <t>To be present at</t>
+  </si>
+  <si>
+    <t>Присутствовать</t>
+  </si>
+  <si>
+    <t>To be absent from</t>
+  </si>
+  <si>
+    <t>Отсутствовать</t>
+  </si>
+  <si>
+    <t>to hijack </t>
+  </si>
+  <si>
+    <t>Захватывать</t>
+  </si>
+  <si>
+    <t>To jack</t>
+  </si>
+  <si>
+    <t>Поднять на домкрате</t>
+  </si>
+  <si>
+    <t>To shrink - shrank - shrunk</t>
+  </si>
+  <si>
+    <t>Сжиматься, сокращаться</t>
+  </si>
+  <si>
+    <t>A pavement</t>
+  </si>
+  <si>
+    <t>Тротуар</t>
+  </si>
+  <si>
+    <t>Scenery</t>
+  </si>
+  <si>
+    <t>Пейзаж</t>
+  </si>
+  <si>
+    <t>It’s no use doing smth</t>
+  </si>
+  <si>
+    <t>Бесполезно что-то делать</t>
+  </si>
+  <si>
+    <t>A rehearsal</t>
+  </si>
+  <si>
+    <t>Репетиция</t>
+  </si>
+  <si>
+    <t>A dress rehearsal</t>
+  </si>
+  <si>
+    <t>Генеральная репетиция</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Пепел</t>
+  </si>
+  <si>
+    <t>Trav</t>
+  </si>
+  <si>
+    <t>Поднос</t>
+  </si>
+  <si>
+    <t>Ash tray</t>
+  </si>
+  <si>
+    <t>Пепельница</t>
+  </si>
+  <si>
+    <t>To get rid of smth</t>
+  </si>
+  <si>
+    <t>Избавиться от чего-то</t>
+  </si>
+  <si>
+    <t>to schedule</t>
+  </si>
+  <si>
+    <t>Планировать</t>
+  </si>
+  <si>
+    <t>Let’s call it a day</t>
+  </si>
+  <si>
+    <t>Давайте закончим (день закончился, наверное подразумевается рабочий)</t>
+  </si>
+  <si>
+    <t>A spade</t>
+  </si>
+  <si>
+    <t>Лопата</t>
+  </si>
+  <si>
+    <t>To call a spade a spade</t>
+  </si>
+  <si>
+    <t>Называть вещи своими именами</t>
+  </si>
+  <si>
+    <t>To have a big mouth</t>
+  </si>
+  <si>
+    <t>Много болтает</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>Разрешение</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>spare parts</t>
+  </si>
+  <si>
+    <t>Запчасти</t>
+  </si>
+  <si>
+    <t>To spare</t>
+  </si>
+  <si>
+    <t>Тратить</t>
+  </si>
+  <si>
+    <t>Give me A hand</t>
+  </si>
+  <si>
+    <t>Помогите мне</t>
+  </si>
+  <si>
+    <t>To wreck</t>
+  </si>
+  <si>
+    <t>Разрушать</t>
+  </si>
+  <si>
+    <t>To require</t>
+  </si>
+  <si>
+    <t>Требовать</t>
+  </si>
+  <si>
+    <t>To supply</t>
+  </si>
+  <si>
+    <t>Поставлять</t>
+  </si>
+  <si>
+    <t>To quarrel with smbd</t>
+  </si>
+  <si>
+    <t>Поссориться с кем-то</t>
+  </si>
+  <si>
+    <t>A hint</t>
+  </si>
+  <si>
+    <t>Подсказка</t>
+  </si>
+  <si>
+    <t>To be aware</t>
+  </si>
+  <si>
+    <t>Быть в курсе</t>
+  </si>
+  <si>
+    <t>To get along with smbd</t>
+  </si>
+  <si>
+    <t>Ладить с кем-то</t>
+  </si>
+  <si>
+    <t>To belong</t>
+  </si>
+  <si>
+    <t>Принадлежать</t>
+  </si>
+  <si>
+    <t>To bend over</t>
+  </si>
+  <si>
+    <t>Наклоняться</t>
+  </si>
+  <si>
+    <t>A Response</t>
+  </si>
+  <si>
+    <t>Ответ, реакция</t>
+  </si>
+  <si>
+    <t>To poke smbd with a stick</t>
+  </si>
+  <si>
+    <t>Тыкать кого-либо палкой</t>
+  </si>
+  <si>
+    <t>On purpose</t>
+  </si>
+  <si>
+    <t>Специально</t>
+  </si>
+  <si>
+    <t>To expend</t>
+  </si>
+  <si>
+    <t>Расширять</t>
+  </si>
+  <si>
+    <t>A perception</t>
+  </si>
+  <si>
+    <t>Восприятие</t>
+  </si>
+  <si>
+    <t>Improving</t>
+  </si>
+  <si>
+    <t>Улучшать</t>
+  </si>
+  <si>
+    <t>At first sight</t>
+  </si>
+  <si>
+    <t>С первого взгляда</t>
+  </si>
+  <si>
+    <t>A slave</t>
+  </si>
+  <si>
+    <t>Раб</t>
+  </si>
+  <si>
+    <t>Leaser </t>
+  </si>
+  <si>
+    <t>Кожанный</t>
+  </si>
+  <si>
+    <t>To talk smbd out of doing smth</t>
+  </si>
+  <si>
+    <t>Отговорить кого-то от (делания) чего-то</t>
+  </si>
+  <si>
+    <t>To talk smbd in doing smth</t>
+  </si>
+  <si>
+    <t>Уговорить кого-то от (делания) чего-то</t>
+  </si>
+  <si>
+    <t>To suspect</t>
+  </si>
+  <si>
+    <t>Подозревать</t>
+  </si>
+  <si>
+    <t>A convict</t>
+  </si>
+  <si>
+    <t>Осужденный</t>
+  </si>
+  <si>
+    <t>To accuse</t>
+  </si>
+  <si>
+    <t>Обвинять</t>
+  </si>
+  <si>
+    <t>To refuse</t>
+  </si>
+  <si>
+    <t>Отказываться</t>
+  </si>
+  <si>
+    <t>To admit</t>
+  </si>
+  <si>
+    <t>Признавать</t>
+  </si>
+  <si>
+    <t>A summit</t>
+  </si>
+  <si>
+    <t>Вершина</t>
+  </si>
+  <si>
+    <t>To Catch a glimpse</t>
+  </si>
+  <si>
+    <t>Быстро взглянуть</t>
+  </si>
+  <si>
+    <t>T-junction</t>
+  </si>
+  <si>
+    <t>Т-образный перекресток</t>
+  </si>
+  <si>
+    <t>To pick on smbd</t>
+  </si>
+  <si>
+    <t>Придраться к кому-то</t>
+  </si>
+  <si>
+    <t>Due to</t>
+  </si>
+  <si>
+    <t>Из-за</t>
+  </si>
+  <si>
+    <t>Each other = one another</t>
+  </si>
+  <si>
+    <t>Друг друга</t>
+  </si>
+  <si>
+    <t>To argu</t>
+  </si>
+  <si>
+    <t>Спорить</t>
+  </si>
+  <si>
+    <t>To back up</t>
+  </si>
+  <si>
+    <t>Сдавать назад</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>Впереди</t>
+  </si>
+  <si>
+    <t>A trunk</t>
+  </si>
+  <si>
+    <t>Багажник, ствол дереваб хобот слона</t>
+  </si>
+  <si>
+    <t>To pour</t>
+  </si>
+  <si>
+    <t>Насыпать, наливать</t>
+  </si>
+  <si>
+    <t>To play a good joke on smbd</t>
+  </si>
+  <si>
+    <t>Подшутить над кем-то</t>
+  </si>
+  <si>
+    <t>To provide</t>
+  </si>
+  <si>
+    <t>Предоставлять</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>Удобный</t>
+  </si>
+  <si>
+    <t>Regarding…</t>
+  </si>
+  <si>
+    <t>Касательно…</t>
+  </si>
+  <si>
+    <t>A schedule</t>
+  </si>
+  <si>
+    <t>Расписание</t>
+  </si>
+  <si>
+    <t>To reduce</t>
+  </si>
+  <si>
+    <t>Уменьшать, снижать, скоращать</t>
+  </si>
+  <si>
+    <t>An emphasis</t>
+  </si>
+  <si>
+    <t>Акцент</t>
+  </si>
+  <si>
+    <t>Proper</t>
+  </si>
+  <si>
+    <t>Правильный, достоверный</t>
+  </si>
+  <si>
+    <t>A prohibition</t>
+  </si>
+  <si>
+    <t>Запрет</t>
+  </si>
+  <si>
+    <t>To attend</t>
+  </si>
+  <si>
+    <t>Посещать</t>
+  </si>
+  <si>
+    <t>To desire</t>
+  </si>
+  <si>
+    <t>Желать</t>
+  </si>
+  <si>
+    <t>To behave</t>
+  </si>
+  <si>
+    <t>Вести себя</t>
+  </si>
+  <si>
+    <t>Negotiations</t>
+  </si>
+  <si>
+    <t>Переговоры</t>
+  </si>
+  <si>
+    <t>A defeat</t>
+  </si>
+  <si>
+    <t>Поражение</t>
+  </si>
+  <si>
+    <t>A restriction</t>
+  </si>
+  <si>
+    <t>Запрет ограничение</t>
+  </si>
+  <si>
+    <t>Instead of doing</t>
+  </si>
+  <si>
+    <t>Вместо …</t>
+  </si>
+  <si>
+    <t>Meanwhile</t>
+  </si>
+  <si>
+    <t>Тем временем</t>
+  </si>
+  <si>
+    <t>Despite</t>
+  </si>
+  <si>
+    <t>Не смотря</t>
+  </si>
+  <si>
+    <t>An outbreak</t>
+  </si>
+  <si>
+    <t>Вспышка</t>
+  </si>
+  <si>
+    <t>An impact</t>
+  </si>
+  <si>
+    <t>Влияние</t>
+  </si>
+  <si>
+    <t>Straightforward</t>
+  </si>
+  <si>
+    <t>Просто</t>
+  </si>
+  <si>
+    <t>A delay</t>
+  </si>
+  <si>
+    <t>Задержка</t>
+  </si>
+  <si>
+    <t>Provided</t>
+  </si>
+  <si>
+    <t>При условии …</t>
+  </si>
+  <si>
+    <t>To pass out</t>
+  </si>
+  <si>
+    <t>Вырубиться</t>
+  </si>
+  <si>
+    <t>To be angry with smbd</t>
+  </si>
+  <si>
+    <t>Злиться на кого-то</t>
+  </si>
+  <si>
+    <t>Even though</t>
+  </si>
+  <si>
+    <t>Несмотря на то</t>
+  </si>
+  <si>
+    <t>A nagging problem</t>
+  </si>
+  <si>
+    <t>Насущная проблема</t>
+  </si>
+  <si>
+    <t>However you look at it, …</t>
+  </si>
+  <si>
+    <t>Как ни посмотри</t>
+  </si>
+  <si>
+    <t>Вклад, влияние</t>
+  </si>
+  <si>
+    <t>in order to/so as to + infinitive</t>
+  </si>
+  <si>
+    <t>Для того чтобы (формальный язык)</t>
+  </si>
+  <si>
+    <t>So that + clause</t>
+  </si>
+  <si>
+    <t>Для того чтобы</t>
+  </si>
+  <si>
+    <t>In case + clause</t>
+  </si>
+  <si>
+    <t>В случае если</t>
+  </si>
+  <si>
+    <t>Consequently</t>
+  </si>
+  <si>
+    <t>Следовательно</t>
+  </si>
+  <si>
+    <t>Therefore</t>
+  </si>
+  <si>
+    <t>Поэтому</t>
+  </si>
+  <si>
+    <t>However</t>
+  </si>
+  <si>
+    <t>Однако</t>
+  </si>
+  <si>
+    <t>At least</t>
+  </si>
+  <si>
+    <t>По крайней мере, как минимум</t>
+  </si>
+  <si>
+    <t>All in all</t>
+  </si>
+  <si>
+    <t>В общем, в целом</t>
+  </si>
+  <si>
+    <t>Besides</t>
+  </si>
+  <si>
+    <t>Помимо, кроме того</t>
+  </si>
+  <si>
+    <t>Furthermore</t>
+  </si>
+  <si>
+    <t>Более того</t>
+  </si>
+  <si>
+    <t>Otherwise</t>
+  </si>
+  <si>
+    <t>В противном случае</t>
+  </si>
+  <si>
+    <t>Whereas</t>
+  </si>
+  <si>
+    <t>В то время как</t>
+  </si>
+  <si>
+    <t>As a matter of fact</t>
+  </si>
+  <si>
+    <t>Собственно говоря</t>
+  </si>
+  <si>
+    <t>Regarding</t>
+  </si>
+  <si>
+    <t>Касательно</t>
+  </si>
+  <si>
+    <t>As far as</t>
+  </si>
+  <si>
+    <t>Насколько, посколько, что касательно…</t>
+  </si>
+  <si>
+    <t>Anyway</t>
+  </si>
+  <si>
+    <t>Тем не менее</t>
+  </si>
+  <si>
+    <t>By the way</t>
+  </si>
+  <si>
+    <t>Кстати</t>
+  </si>
+  <si>
+    <t>Incidentally</t>
+  </si>
+  <si>
+    <t>Между прочим</t>
+  </si>
+  <si>
+    <t>After all</t>
+  </si>
+  <si>
+    <t>В конце концов</t>
+  </si>
+  <si>
+    <t>To restricte</t>
+  </si>
+  <si>
+    <t>Запрещать</t>
+  </si>
+  <si>
+    <t>On purpose</t>
+  </si>
+  <si>
+    <t>Arbitrary</t>
+  </si>
+  <si>
+    <t>Любой</t>
+  </si>
+  <si>
+    <t>To fulfil</t>
+  </si>
+  <si>
+    <t>Заполнять, выполнять</t>
+  </si>
+  <si>
+    <t>To conducte</t>
+  </si>
+  <si>
+    <t>Производить</t>
+  </si>
+  <si>
+    <t>To insist on doing smth</t>
+  </si>
+  <si>
+    <t>Настаивать делать что-то</t>
+  </si>
+  <si>
+    <t>Though </t>
+  </si>
+  <si>
+    <t>On behalf of</t>
+  </si>
+  <si>
+    <t>От имени</t>
+  </si>
+  <si>
+    <t>A staіn</t>
+  </si>
+  <si>
+    <t>Пятно</t>
+  </si>
+  <si>
+    <t>A pеrmіssіon</t>
+  </si>
+  <si>
+    <t>A promotion</t>
+  </si>
+  <si>
+    <t>Продвижение</t>
+  </si>
+  <si>
+    <t>A reduction</t>
+  </si>
+  <si>
+    <t>Сокращение</t>
+  </si>
+  <si>
+    <t>In tern</t>
+  </si>
+  <si>
+    <t>По очереди</t>
+  </si>
+  <si>
+    <t>To cope</t>
+  </si>
+  <si>
+    <t>Справляться</t>
+  </si>
+  <si>
+    <t>Hardly</t>
+  </si>
+  <si>
+    <t>Едва</t>
+  </si>
+  <si>
+    <t>Потерять сознание, умереть</t>
+  </si>
+  <si>
+    <t>Instead of</t>
+  </si>
+  <si>
+    <t>Вместо</t>
+  </si>
+  <si>
+    <t>Pale</t>
+  </si>
+  <si>
+    <t>Бледный</t>
+  </si>
+  <si>
+    <t>Pail</t>
+  </si>
+  <si>
+    <t>Ведро</t>
+  </si>
+  <si>
+    <t>To be up(down) for smth</t>
+  </si>
+  <si>
+    <t>Быть за (что-то)</t>
+  </si>
+  <si>
+    <t>To make out</t>
+  </si>
+  <si>
+    <t>Разобрать (увидеть)</t>
+  </si>
+  <si>
+    <t>To overhear</t>
+  </si>
+  <si>
+    <t>Подслушивать</t>
+  </si>
+  <si>
+    <t>Hence</t>
+  </si>
+  <si>
+    <t>But for smth</t>
+  </si>
+  <si>
+    <t>Если бы не что-то</t>
+  </si>
+  <si>
+    <t>To write out</t>
+  </si>
+  <si>
+    <t>Выписывать</t>
+  </si>
+  <si>
+    <t>To drop in smwh</t>
+  </si>
+  <si>
+    <t>Заскочить куда-то</t>
+  </si>
+  <si>
+    <t>To come up</t>
+  </si>
+  <si>
+    <t>Подниматься, подходить</t>
+  </si>
+  <si>
+    <t>To cry out</t>
+  </si>
+  <si>
+    <t>Воскликнуть</t>
+  </si>
+  <si>
+    <t>Despair</t>
+  </si>
+  <si>
+    <t>Отчаяние</t>
+  </si>
+  <si>
+    <t>Every other day</t>
+  </si>
+  <si>
+    <t>Через день</t>
+  </si>
+  <si>
+    <t>To make a request</t>
+  </si>
+  <si>
+    <t>Обратиться с просьбой</t>
+  </si>
+  <si>
+    <t>It’s high time</t>
+  </si>
+  <si>
+    <t>Давно пора</t>
+  </si>
+  <si>
+    <t>If it wasn’t FOR you</t>
+  </si>
+  <si>
+    <t>Если бы не вы</t>
+  </si>
+  <si>
+    <t>To make smbd do</t>
+  </si>
+  <si>
+    <t>Заставить кого-то сделать что-то</t>
+  </si>
+  <si>
+    <t>To provok</t>
+  </si>
+  <si>
+    <t>Провоцировать</t>
+  </si>
+  <si>
+    <t>The first night</t>
+  </si>
+  <si>
+    <t>Премьера</t>
+  </si>
+  <si>
+    <t>As it turned out, …</t>
+  </si>
+  <si>
+    <t>Оказалось, …</t>
   </si>
   <si>
     <t>Настаивать</t>
   </si>
   <si>
-    <t>Though / although</t>
-  </si>
-  <si>
-    <t>Хотя</t>
-  </si>
-  <si>
-    <t>To deny</t>
-  </si>
-  <si>
-    <t>отрицать</t>
-  </si>
-  <si>
-    <t>To commit a crime</t>
-  </si>
-  <si>
-    <t>Совершить приступление</t>
-  </si>
-  <si>
-    <t>Cannot help doing</t>
-  </si>
-  <si>
-    <t>Не мог не сделать…</t>
-  </si>
-  <si>
-    <t>To tremble / to shiver</t>
-  </si>
-  <si>
-    <t>дрожать</t>
-  </si>
-  <si>
-    <t>To pretend to be</t>
-  </si>
-  <si>
-    <t>притворяться</t>
-  </si>
-  <si>
-    <t>To tear</t>
-  </si>
-  <si>
-    <t>Рвать</t>
-  </si>
-  <si>
-    <t>To look forward to doing smth</t>
-  </si>
-  <si>
-    <t>Ждать с нетерпением, чтоб сделать что-то</t>
-  </si>
-  <si>
-    <t>To deceive</t>
-  </si>
-  <si>
-    <t>Обманывать</t>
-  </si>
-  <si>
-    <t>a peasant</t>
-  </si>
-  <si>
-    <t>Крестьянин</t>
-  </si>
-  <si>
-    <t>To give up the idea of</t>
-  </si>
-  <si>
-    <t>Отказаться от идеи</t>
-  </si>
-  <si>
-    <t>To hear from smbd</t>
-  </si>
-  <si>
-    <t>Слышать о ком-то</t>
-  </si>
-  <si>
-    <t>Dream about (of)</t>
-  </si>
-  <si>
-    <t>Мечтать о чем-либо (просто мечтать / мечтать с планов воплотить в жизнь)</t>
-  </si>
-  <si>
-    <t>To persist in</t>
-  </si>
-  <si>
-    <t>Настаивать на (много раз)</t>
-  </si>
-  <si>
-    <t>To insist on</t>
-  </si>
-  <si>
-    <t>Настаивать на (однократно)</t>
-  </si>
-  <si>
-    <t>To accuse of …</t>
-  </si>
-  <si>
-    <t>Обвинять в …</t>
-  </si>
-  <si>
-    <t>To treat</t>
-  </si>
-  <si>
-    <t>Относиться</t>
+    <t>Обращаться, лечить</t>
+  </si>
+  <si>
+    <t>Избегать деланья чего-о</t>
+  </si>
+  <si>
+    <t>Brief</t>
+  </si>
+  <si>
+    <t>Короткий</t>
+  </si>
+  <si>
+    <t>So far</t>
+  </si>
+  <si>
+    <t>До сих пор</t>
+  </si>
+  <si>
+    <t>The fence</t>
+  </si>
+  <si>
+    <t>Забор</t>
+  </si>
+  <si>
+    <t>Nеwly</t>
+  </si>
+  <si>
+    <t>Недавно</t>
+  </si>
+  <si>
+    <t>To advеrtіsе</t>
+  </si>
+  <si>
+    <t>Рекламировать</t>
+  </si>
+  <si>
+    <t>Во всем мире</t>
+  </si>
+  <si>
+    <t>To cry with joy</t>
+  </si>
+  <si>
+    <t>Плакать от радости</t>
+  </si>
+  <si>
+    <t>To cry for shame</t>
+  </si>
+  <si>
+    <t>Плакать от стыда</t>
+  </si>
+  <si>
+    <t>To refuse the offer</t>
+  </si>
+  <si>
+    <t>Отказаться от предложения</t>
+  </si>
+  <si>
+    <t>To be capable of doing smth</t>
+  </si>
+  <si>
+    <t>Быть в состоянии делать что-то</t>
+  </si>
+  <si>
+    <t>To improve</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Благородный</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>Мудрый</t>
+  </si>
+  <si>
+    <t>To treat like …</t>
+  </si>
+  <si>
+    <t>Относиться как к …</t>
+  </si>
+  <si>
+    <t>To advertise</t>
+  </si>
+  <si>
+    <t>It is a must</t>
+  </si>
+  <si>
+    <t>Это обязательно</t>
+  </si>
+  <si>
+    <t>Do ones duty</t>
+  </si>
+  <si>
+    <t>Выполнять чей-то долг</t>
+  </si>
+  <si>
+    <t>To take a step forward</t>
+  </si>
+  <si>
+    <t>Сделать шаг вперед</t>
+  </si>
+  <si>
+    <t>To dare</t>
+  </si>
+  <si>
+    <t>Сметь</t>
+  </si>
+  <si>
+    <t>By chance</t>
+  </si>
+  <si>
+    <t>Случайно</t>
+  </si>
+  <si>
+    <t>Take it easy</t>
+  </si>
+  <si>
+    <t>Не огорчайся</t>
+  </si>
+  <si>
+    <t>To stand out</t>
+  </si>
+  <si>
+    <t>Выделяться</t>
   </si>
   <si>
     <t>Word</t>
   </si>
   <si>
     <t>Translation</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>TriesNum</t>
+  </si>
+  <si>
+    <t>SuccessesNum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,8 +1697,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF454545"/>
+      <color theme="1"/>
       <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -539,9 +1727,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,642 +2044,4833 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F25E04-4D35-9541-AE81-8357F8B09BC7}">
-  <dimension ref="A1:B78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D99D4B-5202-F044-B75C-726F8DCC356D}">
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>545</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>546</v>
+      </c>
+      <c r="C1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
